--- a/documents/Facebook Page Insight - BI Dashboard Metrics_v2.xlsx
+++ b/documents/Facebook Page Insight - BI Dashboard Metrics_v2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\FB Fanpage - BI Dashboard icon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\get_data_insights\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="516" windowWidth="33600" windowHeight="20544" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="516" windowWidth="33600" windowHeight="20544"/>
   </bookViews>
   <sheets>
     <sheet name="1.1 PAGE REPORT_Metric" sheetId="1" r:id="rId1"/>
@@ -1285,7 +1285,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1338,7 +1338,7 @@
       <b/>
       <sz val="18"/>
       <color rgb="FF305496"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1402,7 +1402,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2082,9 +2082,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2343,6 +2340,123 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2391,129 +2505,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2523,12 +2520,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2544,21 +2589,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2592,42 +2625,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2636,6 +2633,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3312,127 +3312,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView topLeftCell="G16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.19921875" customWidth="1"/>
-    <col min="2" max="2" width="25.09765625" customWidth="1"/>
-    <col min="3" max="3" width="17.09765625" customWidth="1"/>
-    <col min="4" max="4" width="29.59765625" customWidth="1"/>
-    <col min="5" max="5" width="25.59765625" customWidth="1"/>
-    <col min="6" max="6" width="21.19921875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.796875" style="51" customWidth="1"/>
-    <col min="8" max="8" width="44.8984375" customWidth="1"/>
-    <col min="9" max="9" width="23.09765625" customWidth="1"/>
-    <col min="10" max="10" width="18.69921875" customWidth="1"/>
-    <col min="11" max="11" width="44.796875" customWidth="1"/>
+    <col min="1" max="1" width="31.21875" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" style="50" customWidth="1"/>
+    <col min="8" max="8" width="44.88671875" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
+    <col min="11" max="11" width="44.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+    <row r="1" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="170" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
+    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="128" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="133" t="s">
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="171" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="134"/>
-    </row>
-    <row r="5" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="K4" s="172"/>
+    </row>
+    <row r="5" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="105"/>
-    </row>
-    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="104"/>
+    </row>
+    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="162" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="57" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -3441,52 +3441,52 @@
       <c r="F6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="52" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="140" t="s">
+      <c r="I6" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="43"/>
-    </row>
-    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="58" t="s">
+      <c r="B7" s="165"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="85" t="s">
         <v>85</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="55" t="s">
         <v>51</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="141"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="44"/>
-    </row>
-    <row r="8" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="136" t="s">
+      <c r="I7" s="148"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="43"/>
+    </row>
+    <row r="8" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="59" t="s">
+      <c r="B8" s="165"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="58" t="s">
         <v>92</v>
       </c>
       <c r="E8" s="24" t="s">
@@ -3495,67 +3495,67 @@
       <c r="F8" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="142" t="s">
+      <c r="H8" s="178" t="s">
         <v>96</v>
       </c>
-      <c r="I8" s="141"/>
-      <c r="J8" s="139"/>
-      <c r="K8" s="44"/>
-    </row>
-    <row r="9" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="137"/>
-      <c r="B9" s="127"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="60" t="s">
+      <c r="I8" s="148"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="43"/>
+    </row>
+    <row r="9" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="175"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="51" t="s">
         <v>93</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="143"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="139"/>
-      <c r="K9" s="44"/>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
+      <c r="H9" s="179"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="43"/>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="82" t="s">
         <v>208</v>
       </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="84" t="s">
+      <c r="B10" s="165"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="84" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="12"/>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="82" t="s">
+      <c r="H10" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="I10" s="141"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="44"/>
-    </row>
-    <row r="11" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="148"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="43"/>
+    </row>
+    <row r="11" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="61" t="s">
+      <c r="B11" s="165"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="60" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -3564,46 +3564,46 @@
       <c r="F11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="52" t="s">
         <v>51</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="141"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="44"/>
-    </row>
-    <row r="12" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="148"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="43"/>
+    </row>
+    <row r="12" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="108" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="28"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="54"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="27"/>
-      <c r="K12" s="106"/>
-    </row>
-    <row r="13" spans="1:11" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="105"/>
+    </row>
+    <row r="13" spans="1:11" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="144" t="s">
+      <c r="B13" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="146" t="s">
+      <c r="C13" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="58" t="str">
+      <c r="D13" s="57" t="str">
         <f>D6</f>
         <v>page_fans</v>
       </c>
@@ -3623,21 +3623,21 @@
         <f>H6</f>
         <v>Giá trị của ngày cuối cùng trong 1 Tháng hoặc 1 Năm.</v>
       </c>
-      <c r="I13" s="140" t="s">
+      <c r="I13" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="154" t="s">
+      <c r="J13" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="113"/>
-    </row>
-    <row r="14" spans="1:11" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="112"/>
+    </row>
+    <row r="14" spans="1:11" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="61" t="s">
+      <c r="B14" s="153"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="60" t="s">
         <v>54</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -3646,25 +3646,25 @@
       <c r="F14" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="53" t="s">
+      <c r="G14" s="52" t="s">
         <v>51</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="141"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="114" t="s">
+      <c r="I14" s="148"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="113" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="61" t="s">
+      <c r="B15" s="153"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="60" t="s">
         <v>82</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -3673,25 +3673,25 @@
       <c r="F15" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="53" t="s">
+      <c r="G15" s="52" t="s">
         <v>51</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="141"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="115" t="s">
+      <c r="I15" s="148"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="114" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="145"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="63" t="s">
+      <c r="B16" s="154"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="62" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="31" t="s">
@@ -3700,48 +3700,48 @@
       <c r="F16" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="160"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="116" t="s">
+      <c r="I16" s="149"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="115" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
+    <row r="17" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="117"/>
-    </row>
-    <row r="18" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="116"/>
+    </row>
+    <row r="18" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="148" t="s">
+      <c r="B18" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="150" t="s">
+      <c r="C18" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="58" t="s">
         <v>37</v>
       </c>
       <c r="E18" s="24" t="s">
@@ -3750,270 +3750,270 @@
       <c r="F18" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="111" t="s">
+      <c r="G18" s="110" t="s">
         <v>51</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="161" t="s">
+      <c r="I18" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="156" t="s">
+      <c r="J18" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="165" t="s">
+      <c r="K18" s="123" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="149"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="62" t="s">
+      <c r="B19" s="158"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="48" t="s">
         <v>88</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="112" t="s">
+      <c r="G19" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="162"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="166"/>
-    </row>
-    <row r="20" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="I19" s="151"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="124"/>
+    </row>
+    <row r="20" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="109" t="s">
+      <c r="C20" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="117"/>
-    </row>
-    <row r="21" spans="1:23" s="51" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="168" t="s">
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="116"/>
+    </row>
+    <row r="21" spans="1:23" s="50" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="169" t="s">
+      <c r="B21" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="172" t="s">
+      <c r="C21" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="91" t="s">
+      <c r="E21" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="92" t="s">
+      <c r="F21" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="93" t="s">
+      <c r="G21" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="170" t="s">
+      <c r="H21" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="I21" s="163" t="s">
+      <c r="I21" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="158" t="s">
+      <c r="J21" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="171"/>
-    </row>
-    <row r="22" spans="1:23" s="51" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="168"/>
-      <c r="B22" s="169"/>
-      <c r="C22" s="172"/>
-      <c r="D22" s="59" t="s">
+      <c r="K21" s="131"/>
+    </row>
+    <row r="22" spans="1:23" s="50" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="127"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="91" t="s">
+      <c r="E22" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="92" t="s">
+      <c r="F22" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="G22" s="93" t="s">
+      <c r="G22" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="170"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="171"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="145"/>
+      <c r="K22" s="131"/>
     </row>
     <row r="23" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="101" t="s">
+      <c r="A23" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="169" t="s">
+      <c r="B23" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="172"/>
-      <c r="D23" s="153" t="s">
+      <c r="C23" s="132"/>
+      <c r="D23" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="102" t="s">
+      <c r="E23" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="F23" s="152" t="s">
+      <c r="F23" s="125" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="173" t="s">
+      <c r="G23" s="133" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="163" t="s">
+      <c r="I23" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="158"/>
-      <c r="K23" s="178" t="s">
+      <c r="J23" s="145"/>
+      <c r="K23" s="138" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="101" t="s">
+      <c r="A24" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="168"/>
-      <c r="C24" s="172"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="102" t="s">
+      <c r="B24" s="127"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="152"/>
-      <c r="G24" s="174"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="134"/>
       <c r="H24" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="163"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="179"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="145"/>
+      <c r="K24" s="139"/>
     </row>
     <row r="25" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="101" t="s">
+      <c r="A25" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="168"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="102" t="s">
+      <c r="B25" s="127"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="101" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="152"/>
-      <c r="G25" s="174"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="134"/>
       <c r="H25" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I25" s="163"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="179"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="145"/>
+      <c r="K25" s="139"/>
     </row>
     <row r="26" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="101" t="s">
+      <c r="A26" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="168"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="176"/>
-      <c r="E26" s="103" t="s">
+      <c r="B26" s="127"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="102" t="s">
         <v>204</v>
       </c>
-      <c r="F26" s="152" t="s">
+      <c r="F26" s="125" t="s">
         <v>198</v>
       </c>
-      <c r="G26" s="173" t="s">
+      <c r="G26" s="133" t="s">
         <v>26</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="163"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="179"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="145"/>
+      <c r="K26" s="139"/>
     </row>
     <row r="27" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="101" t="s">
+      <c r="A27" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="168"/>
-      <c r="C27" s="172"/>
-      <c r="D27" s="176"/>
-      <c r="E27" s="103" t="s">
+      <c r="B27" s="127"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="102" t="s">
         <v>205</v>
       </c>
-      <c r="F27" s="152"/>
-      <c r="G27" s="174"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="134"/>
       <c r="H27" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="163"/>
-      <c r="J27" s="158"/>
-      <c r="K27" s="179"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="145"/>
+      <c r="K27" s="139"/>
     </row>
     <row r="28" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="100" t="s">
         <v>203</v>
       </c>
-      <c r="B28" s="168"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="176"/>
-      <c r="E28" s="103" t="s">
+      <c r="B28" s="127"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="102" t="s">
         <v>206</v>
       </c>
-      <c r="F28" s="152"/>
-      <c r="G28" s="174"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="134"/>
       <c r="H28" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="163"/>
-      <c r="J28" s="158"/>
-      <c r="K28" s="179"/>
+      <c r="I28" s="129"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="139"/>
     </row>
     <row r="29" spans="1:23" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="168"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="177"/>
-      <c r="E29" s="110" t="s">
+      <c r="B29" s="127"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="109" t="s">
         <v>207</v>
       </c>
-      <c r="F29" s="167"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="50" t="s">
+      <c r="F29" s="126"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I29" s="164"/>
-      <c r="J29" s="159"/>
-      <c r="K29" s="180"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I29" s="152"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="140"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -4026,7 +4026,7 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -4039,7 +4039,7 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -4052,7 +4052,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -4065,7 +4065,7 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -4078,7 +4078,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -4091,7 +4091,7 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -4104,7 +4104,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -4117,7 +4117,7 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -4130,7 +4130,7 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -4143,7 +4143,7 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -4156,7 +4156,7 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -4169,7 +4169,7 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -4182,7 +4182,7 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -4195,7 +4195,7 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -4208,7 +4208,7 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -4221,7 +4221,7 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -4234,7 +4234,7 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -4247,7 +4247,7 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -4260,7 +4260,7 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -4273,7 +4273,7 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -4286,7 +4286,7 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -4299,7 +4299,7 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -4312,7 +4312,7 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -4325,7 +4325,7 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="13:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -4340,6 +4340,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="J6:J11"/>
+    <mergeCell ref="I6:I11"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J21:J29"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I23:I29"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="F26:F29"/>
     <mergeCell ref="A21:A22"/>
@@ -4353,28 +4375,6 @@
     <mergeCell ref="G26:G29"/>
     <mergeCell ref="D26:D29"/>
     <mergeCell ref="K23:K29"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J21:J29"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I23:I29"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="J6:J11"/>
-    <mergeCell ref="I6:I11"/>
-    <mergeCell ref="H8:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4391,522 +4391,522 @@
       <selection activeCell="M25" sqref="M24:M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.3984375" customWidth="1"/>
-    <col min="2" max="3" width="11.09765625" customWidth="1"/>
-    <col min="4" max="4" width="2.69921875" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="1.09765625" customWidth="1"/>
+    <col min="6" max="6" width="1.109375" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="12" width="11.3984375" customWidth="1"/>
-    <col min="13" max="13" width="39.3984375" customWidth="1"/>
+    <col min="8" max="12" width="11.44140625" customWidth="1"/>
+    <col min="13" max="13" width="39.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="183"/>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="183"/>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="183"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="183"/>
-      <c r="K4" s="183"/>
-      <c r="L4" s="183"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="183"/>
-      <c r="B5" s="183"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="183"/>
-      <c r="K5" s="183"/>
-      <c r="L5" s="183"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="183"/>
-      <c r="B6" s="183"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="183"/>
-      <c r="I6" s="183"/>
-      <c r="J6" s="183"/>
-      <c r="K6" s="183"/>
-      <c r="L6" s="183"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="183"/>
-      <c r="B8" s="183"/>
-      <c r="C8" s="183"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="183"/>
-      <c r="K8" s="183"/>
-      <c r="L8" s="183"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="183"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="183"/>
-      <c r="I9" s="183"/>
-      <c r="J9" s="183"/>
-      <c r="K9" s="183"/>
-      <c r="L9" s="183"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="183"/>
-      <c r="B10" s="183"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="183"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="183"/>
-      <c r="L10" s="183"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="183"/>
-      <c r="B11" s="183"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="183"/>
-      <c r="L11" s="183"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="183"/>
-      <c r="B12" s="183"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="183"/>
-      <c r="I12" s="183"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="183"/>
-      <c r="L12" s="183"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="183"/>
-      <c r="B13" s="183"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="183"/>
-      <c r="F13" s="183"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="183"/>
-      <c r="K13" s="183"/>
-      <c r="L13" s="183"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="183"/>
-      <c r="B14" s="183"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="183"/>
-      <c r="L14" s="183"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="183"/>
-      <c r="B15" s="183"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="183"/>
-      <c r="L15" s="183"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="183"/>
-      <c r="B16" s="183"/>
-      <c r="C16" s="183"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="183"/>
-      <c r="L16" s="183"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="183"/>
-      <c r="B17" s="183"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="183"/>
-      <c r="L17" s="183"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="183"/>
-      <c r="B18" s="183"/>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="183"/>
-      <c r="L18" s="183"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="183"/>
-      <c r="B19" s="183"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="183"/>
-      <c r="K19" s="183"/>
-      <c r="L19" s="183"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="183"/>
-      <c r="B20" s="183"/>
-      <c r="C20" s="183"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="183"/>
-      <c r="L20" s="183"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="183"/>
-      <c r="B21" s="183"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="183"/>
-      <c r="L21" s="183"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="183"/>
-      <c r="B22" s="183"/>
-      <c r="C22" s="183"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="183"/>
-      <c r="F22" s="183"/>
-      <c r="G22" s="183"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="183"/>
-      <c r="J22" s="183"/>
-      <c r="K22" s="183"/>
-      <c r="L22" s="183"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="183"/>
-      <c r="B23" s="183"/>
-      <c r="C23" s="183"/>
-      <c r="D23" s="183"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="183"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="183"/>
-      <c r="L23" s="183"/>
-    </row>
-    <row r="24" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="183"/>
-      <c r="B24" s="183"/>
-      <c r="C24" s="183"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="183"/>
-      <c r="K24" s="183"/>
-      <c r="L24" s="183"/>
-      <c r="M24" s="87" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="182"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="182"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="182"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="182"/>
+      <c r="B4" s="182"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="182"/>
+      <c r="I4" s="182"/>
+      <c r="J4" s="182"/>
+      <c r="K4" s="182"/>
+      <c r="L4" s="182"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="182"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="182"/>
+      <c r="L6" s="182"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="182"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="182"/>
+      <c r="L7" s="182"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="182"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="182"/>
+      <c r="K8" s="182"/>
+      <c r="L8" s="182"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="182"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="182"/>
+      <c r="K9" s="182"/>
+      <c r="L9" s="182"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="182"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="182"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="182"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="182"/>
+      <c r="K11" s="182"/>
+      <c r="L11" s="182"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="182"/>
+      <c r="B12" s="182"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="182"/>
+      <c r="J12" s="182"/>
+      <c r="K12" s="182"/>
+      <c r="L12" s="182"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="182"/>
+      <c r="B13" s="182"/>
+      <c r="C13" s="182"/>
+      <c r="D13" s="182"/>
+      <c r="E13" s="182"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="182"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="182"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="182"/>
+      <c r="L13" s="182"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="182"/>
+      <c r="B14" s="182"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="182"/>
+      <c r="J14" s="182"/>
+      <c r="K14" s="182"/>
+      <c r="L14" s="182"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="182"/>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="182"/>
+      <c r="K15" s="182"/>
+      <c r="L15" s="182"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="182"/>
+      <c r="B16" s="182"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="182"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="182"/>
+      <c r="B17" s="182"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="182"/>
+      <c r="L17" s="182"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="182"/>
+      <c r="B18" s="182"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="182"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="182"/>
+      <c r="J18" s="182"/>
+      <c r="K18" s="182"/>
+      <c r="L18" s="182"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="182"/>
+      <c r="B19" s="182"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="182"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="182"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="182"/>
+      <c r="J19" s="182"/>
+      <c r="K19" s="182"/>
+      <c r="L19" s="182"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="182"/>
+      <c r="B20" s="182"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="182"/>
+      <c r="F20" s="182"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="182"/>
+      <c r="J20" s="182"/>
+      <c r="K20" s="182"/>
+      <c r="L20" s="182"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="182"/>
+      <c r="B21" s="182"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="182"/>
+      <c r="K21" s="182"/>
+      <c r="L21" s="182"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="182"/>
+      <c r="B22" s="182"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="182"/>
+      <c r="H22" s="182"/>
+      <c r="I22" s="182"/>
+      <c r="J22" s="182"/>
+      <c r="K22" s="182"/>
+      <c r="L22" s="182"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="182"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="182"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="182"/>
+      <c r="G23" s="182"/>
+      <c r="H23" s="182"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="182"/>
+      <c r="K23" s="182"/>
+      <c r="L23" s="182"/>
+    </row>
+    <row r="24" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="182"/>
+      <c r="B24" s="182"/>
+      <c r="C24" s="182"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="182"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="182"/>
+      <c r="I24" s="182"/>
+      <c r="J24" s="182"/>
+      <c r="K24" s="182"/>
+      <c r="L24" s="182"/>
+      <c r="M24" s="86" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="183"/>
-      <c r="B25" s="183"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="183"/>
-      <c r="J25" s="183"/>
-      <c r="K25" s="183"/>
-      <c r="L25" s="183"/>
-      <c r="M25" s="181" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="182"/>
+      <c r="B25" s="182"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="182"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="182"/>
+      <c r="K25" s="182"/>
+      <c r="L25" s="182"/>
+      <c r="M25" s="180" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="183"/>
-      <c r="B26" s="183"/>
-      <c r="C26" s="183"/>
-      <c r="D26" s="183"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="183"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="183"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="183"/>
-      <c r="K26" s="183"/>
-      <c r="L26" s="183"/>
-      <c r="M26" s="182"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="183"/>
-      <c r="B27" s="183"/>
-      <c r="C27" s="183"/>
-      <c r="D27" s="183"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="183"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="183"/>
-      <c r="K27" s="183"/>
-      <c r="L27" s="183"/>
-      <c r="M27" s="182"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="183"/>
-      <c r="B28" s="183"/>
-      <c r="C28" s="183"/>
-      <c r="D28" s="183"/>
-      <c r="E28" s="183"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="183"/>
-      <c r="I28" s="183"/>
-      <c r="J28" s="183"/>
-      <c r="K28" s="183"/>
-      <c r="L28" s="183"/>
-      <c r="M28" s="182"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="183"/>
-      <c r="B29" s="183"/>
-      <c r="C29" s="183"/>
-      <c r="D29" s="183"/>
-      <c r="E29" s="183"/>
-      <c r="F29" s="183"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="183"/>
-      <c r="J29" s="183"/>
-      <c r="K29" s="183"/>
-      <c r="L29" s="183"/>
-      <c r="M29" s="182"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="183"/>
-      <c r="B30" s="183"/>
-      <c r="C30" s="183"/>
-      <c r="D30" s="183"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="183"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="183"/>
-      <c r="K30" s="183"/>
-      <c r="L30" s="183"/>
-      <c r="M30" s="182"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="183"/>
-      <c r="B31" s="183"/>
-      <c r="C31" s="183"/>
-      <c r="D31" s="183"/>
-      <c r="E31" s="183"/>
-      <c r="F31" s="183"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
-      <c r="I31" s="183"/>
-      <c r="J31" s="183"/>
-      <c r="K31" s="183"/>
-      <c r="L31" s="183"/>
-      <c r="M31" s="182"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="183"/>
-      <c r="B32" s="183"/>
-      <c r="C32" s="183"/>
-      <c r="D32" s="183"/>
-      <c r="E32" s="183"/>
-      <c r="F32" s="183"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="183"/>
-      <c r="J32" s="183"/>
-      <c r="K32" s="183"/>
-      <c r="L32" s="183"/>
-      <c r="M32" s="182"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="183"/>
-      <c r="B33" s="183"/>
-      <c r="C33" s="183"/>
-      <c r="D33" s="183"/>
-      <c r="E33" s="183"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="183"/>
-      <c r="H33" s="183"/>
-      <c r="I33" s="183"/>
-      <c r="J33" s="183"/>
-      <c r="K33" s="183"/>
-      <c r="L33" s="183"/>
-      <c r="M33" s="182"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="183"/>
-      <c r="B34" s="183"/>
-      <c r="C34" s="183"/>
-      <c r="D34" s="183"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="183"/>
-      <c r="H34" s="183"/>
-      <c r="I34" s="183"/>
-      <c r="J34" s="183"/>
-      <c r="K34" s="183"/>
-      <c r="L34" s="183"/>
-      <c r="M34" s="182"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="183"/>
-      <c r="B35" s="183"/>
-      <c r="C35" s="183"/>
-      <c r="D35" s="183"/>
-      <c r="E35" s="183"/>
-      <c r="F35" s="183"/>
-      <c r="G35" s="183"/>
-      <c r="H35" s="183"/>
-      <c r="I35" s="183"/>
-      <c r="J35" s="183"/>
-      <c r="K35" s="183"/>
-      <c r="L35" s="183"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="182"/>
+      <c r="B26" s="182"/>
+      <c r="C26" s="182"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="182"/>
+      <c r="F26" s="182"/>
+      <c r="G26" s="182"/>
+      <c r="H26" s="182"/>
+      <c r="I26" s="182"/>
+      <c r="J26" s="182"/>
+      <c r="K26" s="182"/>
+      <c r="L26" s="182"/>
+      <c r="M26" s="181"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="182"/>
+      <c r="B27" s="182"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="182"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="182"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="182"/>
+      <c r="I27" s="182"/>
+      <c r="J27" s="182"/>
+      <c r="K27" s="182"/>
+      <c r="L27" s="182"/>
+      <c r="M27" s="181"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="182"/>
+      <c r="B28" s="182"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="182"/>
+      <c r="L28" s="182"/>
+      <c r="M28" s="181"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="182"/>
+      <c r="B29" s="182"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="182"/>
+      <c r="K29" s="182"/>
+      <c r="L29" s="182"/>
+      <c r="M29" s="181"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="182"/>
+      <c r="B30" s="182"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="182"/>
+      <c r="G30" s="182"/>
+      <c r="H30" s="182"/>
+      <c r="I30" s="182"/>
+      <c r="J30" s="182"/>
+      <c r="K30" s="182"/>
+      <c r="L30" s="182"/>
+      <c r="M30" s="181"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="182"/>
+      <c r="B31" s="182"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="182"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="182"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="182"/>
+      <c r="I31" s="182"/>
+      <c r="J31" s="182"/>
+      <c r="K31" s="182"/>
+      <c r="L31" s="182"/>
+      <c r="M31" s="181"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="182"/>
+      <c r="B32" s="182"/>
+      <c r="C32" s="182"/>
+      <c r="D32" s="182"/>
+      <c r="E32" s="182"/>
+      <c r="F32" s="182"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="182"/>
+      <c r="I32" s="182"/>
+      <c r="J32" s="182"/>
+      <c r="K32" s="182"/>
+      <c r="L32" s="182"/>
+      <c r="M32" s="181"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="182"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="182"/>
+      <c r="G33" s="182"/>
+      <c r="H33" s="182"/>
+      <c r="I33" s="182"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="182"/>
+      <c r="L33" s="182"/>
+      <c r="M33" s="181"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="182"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="182"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="182"/>
+      <c r="G34" s="182"/>
+      <c r="H34" s="182"/>
+      <c r="I34" s="182"/>
+      <c r="J34" s="182"/>
+      <c r="K34" s="182"/>
+      <c r="L34" s="182"/>
+      <c r="M34" s="181"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="182"/>
+      <c r="B35" s="182"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="182"/>
+      <c r="F35" s="182"/>
+      <c r="G35" s="182"/>
+      <c r="H35" s="182"/>
+      <c r="I35" s="182"/>
+      <c r="J35" s="182"/>
+      <c r="K35" s="182"/>
+      <c r="L35" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4930,592 +4930,592 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.3984375" customWidth="1"/>
-    <col min="2" max="2" width="22.796875" customWidth="1"/>
-    <col min="3" max="3" width="17.09765625" customWidth="1"/>
-    <col min="4" max="4" width="24.796875" customWidth="1"/>
-    <col min="5" max="5" width="25.59765625" customWidth="1"/>
-    <col min="6" max="6" width="18.69921875" customWidth="1"/>
-    <col min="7" max="7" width="42.8984375" customWidth="1"/>
-    <col min="8" max="8" width="23.09765625" customWidth="1"/>
-    <col min="9" max="9" width="16.09765625" customWidth="1"/>
-    <col min="10" max="10" width="44.796875" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.88671875" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="44.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+    <row r="1" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="170" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="128" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="133" t="s">
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="171" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="134"/>
-    </row>
-    <row r="5" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="J4" s="172"/>
+    </row>
+    <row r="5" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="105"/>
-    </row>
-    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="104"/>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="162" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="85" t="s">
         <v>216</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="55" t="s">
         <v>217</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="H6" s="141"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="44"/>
-    </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="148"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="43"/>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="58" t="s">
+      <c r="B7" s="165"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="57" t="s">
         <v>219</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="55" t="s">
         <v>217</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="H7" s="141"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="44"/>
-    </row>
-    <row r="8" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="136" t="s">
+      <c r="H7" s="148"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="43"/>
+    </row>
+    <row r="8" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="59" t="s">
+      <c r="B8" s="165"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="95" t="s">
         <v>260</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="G8" s="142" t="s">
+      <c r="G8" s="178" t="s">
         <v>228</v>
       </c>
-      <c r="H8" s="141"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="44"/>
-    </row>
-    <row r="9" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="137"/>
-      <c r="B9" s="127"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="60" t="s">
+      <c r="H8" s="148"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="43"/>
+    </row>
+    <row r="9" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="175"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="G9" s="143"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="44"/>
-    </row>
-    <row r="10" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="179"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="43"/>
+    </row>
+    <row r="10" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B10" s="207"/>
-      <c r="C10" s="208"/>
-      <c r="D10" s="61" t="s">
+      <c r="B10" s="200"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="94" t="s">
+      <c r="E10" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="95" t="s">
+      <c r="F10" s="94" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="H10" s="141"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="44"/>
-    </row>
-    <row r="11" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="148"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="43"/>
+    </row>
+    <row r="11" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>214</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="108" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="28"/>
-      <c r="F11" s="54"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="106"/>
-    </row>
-    <row r="12" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="78" t="s">
+      <c r="J11" s="105"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="77" t="s">
         <v>229</v>
       </c>
-      <c r="B12" s="209" t="s">
+      <c r="B12" s="187" t="s">
         <v>245</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="162" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="191" t="s">
+      <c r="D12" s="194" t="s">
         <v>224</v>
       </c>
-      <c r="E12" s="198" t="s">
+      <c r="E12" s="209" t="s">
         <v>227</v>
       </c>
-      <c r="F12" s="194" t="s">
+      <c r="F12" s="197" t="s">
         <v>217</v>
       </c>
-      <c r="G12" s="204" t="s">
+      <c r="G12" s="215" t="s">
         <v>234</v>
       </c>
-      <c r="H12" s="161" t="s">
+      <c r="H12" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="138" t="s">
+      <c r="I12" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="190"/>
-    </row>
-    <row r="13" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
+      <c r="J12" s="205"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="210"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="192"/>
-      <c r="E13" s="199"/>
-      <c r="F13" s="195"/>
-      <c r="G13" s="205"/>
-      <c r="H13" s="184"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="171"/>
-    </row>
-    <row r="14" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="78" t="s">
+      <c r="B13" s="188"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="210"/>
+      <c r="F13" s="198"/>
+      <c r="G13" s="216"/>
+      <c r="H13" s="191"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="131"/>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="210"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="213"/>
-      <c r="E14" s="200"/>
-      <c r="F14" s="214"/>
-      <c r="G14" s="205"/>
-      <c r="H14" s="184"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="171"/>
-    </row>
-    <row r="15" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="s">
+      <c r="B14" s="188"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="211"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="216"/>
+      <c r="H14" s="191"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="131"/>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="77" t="s">
         <v>230</v>
       </c>
-      <c r="B15" s="210"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="191" t="s">
+      <c r="B15" s="188"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="194" t="s">
         <v>226</v>
       </c>
-      <c r="E15" s="201" t="s">
+      <c r="E15" s="212" t="s">
         <v>225</v>
       </c>
-      <c r="F15" s="194" t="s">
+      <c r="F15" s="197" t="s">
         <v>217</v>
       </c>
-      <c r="G15" s="205"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="190"/>
-    </row>
-    <row r="16" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
+      <c r="G15" s="216"/>
+      <c r="H15" s="191"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="205"/>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="77" t="s">
         <v>231</v>
       </c>
-      <c r="B16" s="210"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="192"/>
-      <c r="E16" s="202"/>
-      <c r="F16" s="195"/>
-      <c r="G16" s="205"/>
-      <c r="H16" s="184"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="171"/>
-    </row>
-    <row r="17" spans="1:22" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="s">
+      <c r="B16" s="188"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="195"/>
+      <c r="E16" s="213"/>
+      <c r="F16" s="198"/>
+      <c r="G16" s="216"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="131"/>
+    </row>
+    <row r="17" spans="1:22" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="B17" s="210"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="192"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="205"/>
-      <c r="H17" s="184"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="171"/>
-    </row>
-    <row r="18" spans="1:22" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="79" t="s">
+      <c r="B17" s="188"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="195"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="216"/>
+      <c r="H17" s="191"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="131"/>
+    </row>
+    <row r="18" spans="1:22" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="211"/>
-      <c r="C18" s="208"/>
-      <c r="D18" s="193"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="206"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="212"/>
-      <c r="J18" s="197"/>
-    </row>
-    <row r="19" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="B18" s="189"/>
+      <c r="C18" s="190"/>
+      <c r="D18" s="206"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="207"/>
+      <c r="G18" s="217"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="208"/>
+    </row>
+    <row r="19" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="44" t="s">
         <v>235</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="107"/>
-    </row>
-    <row r="20" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="106"/>
+    </row>
+    <row r="20" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B20" s="169" t="s">
+      <c r="B20" s="128" t="s">
         <v>246</v>
       </c>
-      <c r="C20" s="150" t="s">
+      <c r="C20" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="91" t="s">
+      <c r="E20" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="93" t="s">
+      <c r="F20" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="170" t="s">
+      <c r="G20" s="130" t="s">
         <v>247</v>
       </c>
-      <c r="H20" s="161" t="s">
+      <c r="H20" s="150" t="s">
         <v>255</v>
       </c>
-      <c r="I20" s="156" t="s">
+      <c r="I20" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="217"/>
-    </row>
-    <row r="21" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="185"/>
+    </row>
+    <row r="21" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B21" s="169"/>
-      <c r="C21" s="216"/>
-      <c r="D21" s="59" t="s">
+      <c r="B21" s="128"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="91" t="s">
+      <c r="E21" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="93" t="s">
+      <c r="F21" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="170"/>
-      <c r="H21" s="184"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="217"/>
-    </row>
-    <row r="22" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="130"/>
+      <c r="H21" s="191"/>
+      <c r="I21" s="201"/>
+      <c r="J21" s="185"/>
+    </row>
+    <row r="22" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B22" s="169"/>
-      <c r="C22" s="216"/>
-      <c r="D22" s="58" t="s">
+      <c r="B22" s="128"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="E22" s="86" t="s">
+      <c r="E22" s="85" t="s">
         <v>216</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="G22" s="170"/>
-      <c r="H22" s="184"/>
-      <c r="I22" s="186"/>
-      <c r="J22" s="187" t="s">
+      <c r="G22" s="130"/>
+      <c r="H22" s="191"/>
+      <c r="I22" s="201"/>
+      <c r="J22" s="202" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B23" s="169"/>
-      <c r="C23" s="216"/>
-      <c r="D23" s="58" t="s">
+      <c r="B23" s="128"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="57" t="s">
         <v>219</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="G23" s="170"/>
-      <c r="H23" s="184"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="188"/>
-    </row>
-    <row r="24" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="123" t="s">
+      <c r="G23" s="130"/>
+      <c r="H23" s="191"/>
+      <c r="I23" s="201"/>
+      <c r="J23" s="203"/>
+    </row>
+    <row r="24" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="122" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="169"/>
-      <c r="C24" s="216"/>
-      <c r="D24" s="118" t="s">
+      <c r="B24" s="128"/>
+      <c r="C24" s="184"/>
+      <c r="D24" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="98" t="s">
+      <c r="E24" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="100" t="s">
+      <c r="F24" s="99" t="s">
         <v>217</v>
       </c>
-      <c r="G24" s="99" t="s">
+      <c r="G24" s="98" t="s">
         <v>248</v>
       </c>
-      <c r="H24" s="184"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="188"/>
-    </row>
-    <row r="25" spans="1:22" s="51" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="218" t="s">
+      <c r="H24" s="191"/>
+      <c r="I24" s="201"/>
+      <c r="J24" s="203"/>
+    </row>
+    <row r="25" spans="1:22" s="50" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="186" t="s">
         <v>241</v>
       </c>
-      <c r="B25" s="169"/>
-      <c r="C25" s="216"/>
-      <c r="D25" s="59" t="s">
+      <c r="B25" s="128"/>
+      <c r="C25" s="184"/>
+      <c r="D25" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="E25" s="96" t="s">
+      <c r="E25" s="95" t="s">
         <v>252</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="G25" s="170" t="s">
+      <c r="G25" s="130" t="s">
         <v>249</v>
       </c>
-      <c r="H25" s="184"/>
-      <c r="I25" s="186"/>
-      <c r="J25" s="188"/>
-    </row>
-    <row r="26" spans="1:22" s="51" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="218"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="216"/>
-      <c r="D26" s="60" t="s">
+      <c r="H25" s="191"/>
+      <c r="I25" s="201"/>
+      <c r="J25" s="203"/>
+    </row>
+    <row r="26" spans="1:22" s="50" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="186"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="184"/>
+      <c r="D26" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="F26" s="56" t="s">
+      <c r="F26" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="G26" s="170"/>
-      <c r="H26" s="184"/>
-      <c r="I26" s="186"/>
-      <c r="J26" s="188"/>
-    </row>
-    <row r="27" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="123" t="s">
+      <c r="G26" s="130"/>
+      <c r="H26" s="191"/>
+      <c r="I26" s="201"/>
+      <c r="J26" s="203"/>
+    </row>
+    <row r="27" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="122" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="169"/>
-      <c r="C27" s="216"/>
-      <c r="D27" s="118" t="s">
+      <c r="B27" s="128"/>
+      <c r="C27" s="184"/>
+      <c r="D27" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="98" t="s">
+      <c r="E27" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="100" t="s">
+      <c r="F27" s="99" t="s">
         <v>217</v>
       </c>
-      <c r="G27" s="99" t="s">
+      <c r="G27" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="H27" s="184"/>
-      <c r="I27" s="186"/>
-      <c r="J27" s="188"/>
-    </row>
-    <row r="28" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="191"/>
+      <c r="I27" s="201"/>
+      <c r="J27" s="203"/>
+    </row>
+    <row r="28" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B28" s="169"/>
-      <c r="C28" s="216"/>
-      <c r="D28" s="59" t="s">
+      <c r="B28" s="128"/>
+      <c r="C28" s="184"/>
+      <c r="D28" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="E28" s="97" t="s">
+      <c r="E28" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="F28" s="56" t="s">
+      <c r="F28" s="55" t="s">
         <v>217</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="H28" s="184"/>
-      <c r="I28" s="186"/>
-      <c r="J28" s="188"/>
-    </row>
-    <row r="29" spans="1:22" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="79" t="s">
+      <c r="H28" s="191"/>
+      <c r="I28" s="201"/>
+      <c r="J28" s="203"/>
+    </row>
+    <row r="29" spans="1:22" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="78" t="s">
         <v>244</v>
       </c>
-      <c r="B29" s="215"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="119" t="s">
+      <c r="B29" s="183"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="120" t="s">
+      <c r="E29" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="122" t="s">
+      <c r="F29" s="121" t="s">
         <v>217</v>
       </c>
-      <c r="G29" s="121" t="s">
+      <c r="G29" s="120" t="s">
         <v>254</v>
       </c>
-      <c r="H29" s="185"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="189"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H29" s="192"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="204"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -5528,7 +5528,7 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -5541,7 +5541,7 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -5554,7 +5554,7 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -5567,7 +5567,7 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
     </row>
-    <row r="34" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -5580,7 +5580,7 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
     </row>
-    <row r="35" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -5593,7 +5593,7 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
     </row>
-    <row r="36" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -5606,7 +5606,7 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
     </row>
-    <row r="37" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -5619,7 +5619,7 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
     </row>
-    <row r="38" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -5632,7 +5632,7 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
     </row>
-    <row r="39" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -5645,7 +5645,7 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
     </row>
-    <row r="40" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -5658,7 +5658,7 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
     </row>
-    <row r="41" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -5671,7 +5671,7 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
     </row>
-    <row r="42" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -5684,7 +5684,7 @@
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
     </row>
-    <row r="43" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -5697,7 +5697,7 @@
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
     </row>
-    <row r="44" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -5710,7 +5710,7 @@
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
     </row>
-    <row r="45" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -5723,7 +5723,7 @@
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
     </row>
-    <row r="46" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -5736,7 +5736,7 @@
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
     </row>
-    <row r="47" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -5749,7 +5749,7 @@
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
     </row>
-    <row r="48" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -5762,7 +5762,7 @@
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
     </row>
-    <row r="49" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -5775,7 +5775,7 @@
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
     </row>
-    <row r="50" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -5788,7 +5788,7 @@
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
     </row>
-    <row r="51" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -5803,18 +5803,13 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B20:B29"/>
-    <mergeCell ref="C20:C29"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="C12:C18"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="I12:I18"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="G12:G18"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:I3"/>
@@ -5825,16 +5820,21 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="C6:C10"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="C12:C18"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="I12:I18"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="B20:B29"/>
+    <mergeCell ref="C20:C29"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G25:G26"/>
     <mergeCell ref="H20:H29"/>
     <mergeCell ref="I20:I29"/>
     <mergeCell ref="J22:J29"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="G12:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5849,656 +5849,656 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="17" max="17" width="61.5" customWidth="1"/>
+    <col min="17" max="17" width="61.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="183"/>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="183"/>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="183"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="183"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="183"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="183"/>
-      <c r="K4" s="183"/>
-      <c r="L4" s="183"/>
-      <c r="M4" s="183"/>
-      <c r="N4" s="183"/>
-      <c r="O4" s="183"/>
-      <c r="P4" s="183"/>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="183"/>
-      <c r="B5" s="183"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="183"/>
-      <c r="K5" s="183"/>
-      <c r="L5" s="183"/>
-      <c r="M5" s="183"/>
-      <c r="N5" s="183"/>
-      <c r="O5" s="183"/>
-      <c r="P5" s="183"/>
-      <c r="Q5" s="90" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="182"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="182"/>
+      <c r="P1" s="182"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="182"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="182"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="182"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="182"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="182"/>
+      <c r="B4" s="182"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="182"/>
+      <c r="I4" s="182"/>
+      <c r="J4" s="182"/>
+      <c r="K4" s="182"/>
+      <c r="L4" s="182"/>
+      <c r="M4" s="182"/>
+      <c r="N4" s="182"/>
+      <c r="O4" s="182"/>
+      <c r="P4" s="182"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="89" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="183"/>
-      <c r="B6" s="183"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="183"/>
-      <c r="I6" s="183"/>
-      <c r="J6" s="183"/>
-      <c r="K6" s="183"/>
-      <c r="L6" s="183"/>
-      <c r="M6" s="183"/>
-      <c r="N6" s="183"/>
-      <c r="O6" s="183"/>
-      <c r="P6" s="183"/>
-      <c r="Q6" s="181" t="s">
+    <row r="6" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="182"/>
+      <c r="L6" s="182"/>
+      <c r="M6" s="182"/>
+      <c r="N6" s="182"/>
+      <c r="O6" s="182"/>
+      <c r="P6" s="182"/>
+      <c r="Q6" s="180" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="183"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="183"/>
-      <c r="Q7" s="181"/>
-    </row>
-    <row r="8" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="183"/>
-      <c r="B8" s="183"/>
-      <c r="C8" s="183"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="183"/>
-      <c r="K8" s="183"/>
-      <c r="L8" s="183"/>
-      <c r="M8" s="183"/>
-      <c r="N8" s="183"/>
-      <c r="O8" s="183"/>
-      <c r="P8" s="183"/>
-      <c r="Q8" s="181"/>
-    </row>
-    <row r="9" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="183"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="183"/>
-      <c r="I9" s="183"/>
-      <c r="J9" s="183"/>
-      <c r="K9" s="183"/>
-      <c r="L9" s="183"/>
-      <c r="M9" s="183"/>
-      <c r="N9" s="183"/>
-      <c r="O9" s="183"/>
-      <c r="P9" s="183"/>
-      <c r="Q9" s="181"/>
-    </row>
-    <row r="10" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="183"/>
-      <c r="B10" s="183"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="183"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="183"/>
-      <c r="L10" s="183"/>
-      <c r="M10" s="183"/>
-      <c r="N10" s="183"/>
-      <c r="O10" s="183"/>
-      <c r="P10" s="183"/>
-      <c r="Q10" s="181"/>
-    </row>
-    <row r="11" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="183"/>
-      <c r="B11" s="183"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="183"/>
-      <c r="L11" s="183"/>
-      <c r="M11" s="183"/>
-      <c r="N11" s="183"/>
-      <c r="O11" s="183"/>
-      <c r="P11" s="183"/>
-      <c r="Q11" s="181"/>
-    </row>
-    <row r="12" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="183"/>
-      <c r="B12" s="183"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="183"/>
-      <c r="I12" s="183"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="183"/>
-      <c r="L12" s="183"/>
-      <c r="M12" s="183"/>
-      <c r="N12" s="183"/>
-      <c r="O12" s="183"/>
-      <c r="P12" s="183"/>
-      <c r="Q12" s="181"/>
-    </row>
-    <row r="13" spans="1:17" s="89" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="183"/>
-      <c r="B13" s="183"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="183"/>
-      <c r="F13" s="183"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="183"/>
-      <c r="K13" s="183"/>
-      <c r="L13" s="183"/>
-      <c r="M13" s="183"/>
-      <c r="N13" s="183"/>
-      <c r="O13" s="183"/>
-      <c r="P13" s="183"/>
-      <c r="Q13" s="181"/>
-    </row>
-    <row r="14" spans="1:17" s="89" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="183"/>
-      <c r="B14" s="183"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="183"/>
-      <c r="L14" s="183"/>
-      <c r="M14" s="183"/>
-      <c r="N14" s="183"/>
-      <c r="O14" s="183"/>
-      <c r="P14" s="183"/>
-      <c r="Q14" s="88"/>
-    </row>
-    <row r="15" spans="1:17" s="89" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="183"/>
-      <c r="B15" s="183"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="183"/>
-      <c r="L15" s="183"/>
-      <c r="M15" s="183"/>
-      <c r="N15" s="183"/>
-      <c r="O15" s="183"/>
-      <c r="P15" s="183"/>
-      <c r="Q15" s="88"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="183"/>
-      <c r="B16" s="183"/>
-      <c r="C16" s="183"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="183"/>
-      <c r="L16" s="183"/>
-      <c r="M16" s="183"/>
-      <c r="N16" s="183"/>
-      <c r="O16" s="183"/>
-      <c r="P16" s="183"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="183"/>
-      <c r="B17" s="183"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="183"/>
-      <c r="L17" s="183"/>
-      <c r="M17" s="183"/>
-      <c r="N17" s="183"/>
-      <c r="O17" s="183"/>
-      <c r="P17" s="183"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="183"/>
-      <c r="B18" s="183"/>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="183"/>
-      <c r="L18" s="183"/>
-      <c r="M18" s="183"/>
-      <c r="N18" s="183"/>
-      <c r="O18" s="183"/>
-      <c r="P18" s="183"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="183"/>
-      <c r="B19" s="183"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="183"/>
-      <c r="K19" s="183"/>
-      <c r="L19" s="183"/>
-      <c r="M19" s="183"/>
-      <c r="N19" s="183"/>
-      <c r="O19" s="183"/>
-      <c r="P19" s="183"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="183"/>
-      <c r="B20" s="183"/>
-      <c r="C20" s="183"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="183"/>
-      <c r="L20" s="183"/>
-      <c r="M20" s="183"/>
-      <c r="N20" s="183"/>
-      <c r="O20" s="183"/>
-      <c r="P20" s="183"/>
-      <c r="Q20" s="219" t="s">
+    <row r="7" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="182"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="182"/>
+      <c r="L7" s="182"/>
+      <c r="M7" s="182"/>
+      <c r="N7" s="182"/>
+      <c r="O7" s="182"/>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="180"/>
+    </row>
+    <row r="8" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="182"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="182"/>
+      <c r="K8" s="182"/>
+      <c r="L8" s="182"/>
+      <c r="M8" s="182"/>
+      <c r="N8" s="182"/>
+      <c r="O8" s="182"/>
+      <c r="P8" s="182"/>
+      <c r="Q8" s="180"/>
+    </row>
+    <row r="9" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="182"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="182"/>
+      <c r="K9" s="182"/>
+      <c r="L9" s="182"/>
+      <c r="M9" s="182"/>
+      <c r="N9" s="182"/>
+      <c r="O9" s="182"/>
+      <c r="P9" s="182"/>
+      <c r="Q9" s="180"/>
+    </row>
+    <row r="10" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="182"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="182"/>
+      <c r="N10" s="182"/>
+      <c r="O10" s="182"/>
+      <c r="P10" s="182"/>
+      <c r="Q10" s="180"/>
+    </row>
+    <row r="11" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="182"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="182"/>
+      <c r="K11" s="182"/>
+      <c r="L11" s="182"/>
+      <c r="M11" s="182"/>
+      <c r="N11" s="182"/>
+      <c r="O11" s="182"/>
+      <c r="P11" s="182"/>
+      <c r="Q11" s="180"/>
+    </row>
+    <row r="12" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="182"/>
+      <c r="B12" s="182"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="182"/>
+      <c r="J12" s="182"/>
+      <c r="K12" s="182"/>
+      <c r="L12" s="182"/>
+      <c r="M12" s="182"/>
+      <c r="N12" s="182"/>
+      <c r="O12" s="182"/>
+      <c r="P12" s="182"/>
+      <c r="Q12" s="180"/>
+    </row>
+    <row r="13" spans="1:17" s="88" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="182"/>
+      <c r="B13" s="182"/>
+      <c r="C13" s="182"/>
+      <c r="D13" s="182"/>
+      <c r="E13" s="182"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="182"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="182"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="182"/>
+      <c r="L13" s="182"/>
+      <c r="M13" s="182"/>
+      <c r="N13" s="182"/>
+      <c r="O13" s="182"/>
+      <c r="P13" s="182"/>
+      <c r="Q13" s="180"/>
+    </row>
+    <row r="14" spans="1:17" s="88" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="182"/>
+      <c r="B14" s="182"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="182"/>
+      <c r="J14" s="182"/>
+      <c r="K14" s="182"/>
+      <c r="L14" s="182"/>
+      <c r="M14" s="182"/>
+      <c r="N14" s="182"/>
+      <c r="O14" s="182"/>
+      <c r="P14" s="182"/>
+      <c r="Q14" s="87"/>
+    </row>
+    <row r="15" spans="1:17" s="88" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="182"/>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="182"/>
+      <c r="K15" s="182"/>
+      <c r="L15" s="182"/>
+      <c r="M15" s="182"/>
+      <c r="N15" s="182"/>
+      <c r="O15" s="182"/>
+      <c r="P15" s="182"/>
+      <c r="Q15" s="87"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="182"/>
+      <c r="B16" s="182"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="182"/>
+      <c r="M16" s="182"/>
+      <c r="N16" s="182"/>
+      <c r="O16" s="182"/>
+      <c r="P16" s="182"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="182"/>
+      <c r="B17" s="182"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="182"/>
+      <c r="L17" s="182"/>
+      <c r="M17" s="182"/>
+      <c r="N17" s="182"/>
+      <c r="O17" s="182"/>
+      <c r="P17" s="182"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="182"/>
+      <c r="B18" s="182"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="182"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="182"/>
+      <c r="J18" s="182"/>
+      <c r="K18" s="182"/>
+      <c r="L18" s="182"/>
+      <c r="M18" s="182"/>
+      <c r="N18" s="182"/>
+      <c r="O18" s="182"/>
+      <c r="P18" s="182"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="182"/>
+      <c r="B19" s="182"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="182"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="182"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="182"/>
+      <c r="J19" s="182"/>
+      <c r="K19" s="182"/>
+      <c r="L19" s="182"/>
+      <c r="M19" s="182"/>
+      <c r="N19" s="182"/>
+      <c r="O19" s="182"/>
+      <c r="P19" s="182"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="182"/>
+      <c r="B20" s="182"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="182"/>
+      <c r="F20" s="182"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="182"/>
+      <c r="J20" s="182"/>
+      <c r="K20" s="182"/>
+      <c r="L20" s="182"/>
+      <c r="M20" s="182"/>
+      <c r="N20" s="182"/>
+      <c r="O20" s="182"/>
+      <c r="P20" s="182"/>
+      <c r="Q20" s="218" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="183"/>
-      <c r="B21" s="183"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="183"/>
-      <c r="L21" s="183"/>
-      <c r="M21" s="183"/>
-      <c r="N21" s="183"/>
-      <c r="O21" s="183"/>
-      <c r="P21" s="183"/>
-      <c r="Q21" s="220"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="183"/>
-      <c r="B22" s="183"/>
-      <c r="C22" s="183"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="183"/>
-      <c r="F22" s="183"/>
-      <c r="G22" s="183"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="183"/>
-      <c r="J22" s="183"/>
-      <c r="K22" s="183"/>
-      <c r="L22" s="183"/>
-      <c r="M22" s="183"/>
-      <c r="N22" s="183"/>
-      <c r="O22" s="183"/>
-      <c r="P22" s="183"/>
-      <c r="Q22" s="220"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="183"/>
-      <c r="B23" s="183"/>
-      <c r="C23" s="183"/>
-      <c r="D23" s="183"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="183"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="183"/>
-      <c r="L23" s="183"/>
-      <c r="M23" s="183"/>
-      <c r="N23" s="183"/>
-      <c r="O23" s="183"/>
-      <c r="P23" s="183"/>
-      <c r="Q23" s="220"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="183"/>
-      <c r="B24" s="183"/>
-      <c r="C24" s="183"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="183"/>
-      <c r="K24" s="183"/>
-      <c r="L24" s="183"/>
-      <c r="M24" s="183"/>
-      <c r="N24" s="183"/>
-      <c r="O24" s="183"/>
-      <c r="P24" s="183"/>
-      <c r="Q24" s="220"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="183"/>
-      <c r="B25" s="183"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="183"/>
-      <c r="J25" s="183"/>
-      <c r="K25" s="183"/>
-      <c r="L25" s="183"/>
-      <c r="M25" s="183"/>
-      <c r="N25" s="183"/>
-      <c r="O25" s="183"/>
-      <c r="P25" s="183"/>
-      <c r="Q25" s="220"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="183"/>
-      <c r="B26" s="183"/>
-      <c r="C26" s="183"/>
-      <c r="D26" s="183"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="183"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="183"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="183"/>
-      <c r="K26" s="183"/>
-      <c r="L26" s="183"/>
-      <c r="M26" s="183"/>
-      <c r="N26" s="183"/>
-      <c r="O26" s="183"/>
-      <c r="P26" s="183"/>
-      <c r="Q26" s="220"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="183"/>
-      <c r="B27" s="183"/>
-      <c r="C27" s="183"/>
-      <c r="D27" s="183"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="183"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="183"/>
-      <c r="K27" s="183"/>
-      <c r="L27" s="183"/>
-      <c r="M27" s="183"/>
-      <c r="N27" s="183"/>
-      <c r="O27" s="183"/>
-      <c r="P27" s="183"/>
-      <c r="Q27" s="220"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="183"/>
-      <c r="B28" s="183"/>
-      <c r="C28" s="183"/>
-      <c r="D28" s="183"/>
-      <c r="E28" s="183"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="183"/>
-      <c r="I28" s="183"/>
-      <c r="J28" s="183"/>
-      <c r="K28" s="183"/>
-      <c r="L28" s="183"/>
-      <c r="M28" s="183"/>
-      <c r="N28" s="183"/>
-      <c r="O28" s="183"/>
-      <c r="P28" s="183"/>
-      <c r="Q28" s="220"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="183"/>
-      <c r="B29" s="183"/>
-      <c r="C29" s="183"/>
-      <c r="D29" s="183"/>
-      <c r="E29" s="183"/>
-      <c r="F29" s="183"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="183"/>
-      <c r="J29" s="183"/>
-      <c r="K29" s="183"/>
-      <c r="L29" s="183"/>
-      <c r="M29" s="183"/>
-      <c r="N29" s="183"/>
-      <c r="O29" s="183"/>
-      <c r="P29" s="183"/>
-      <c r="Q29" s="220"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="183"/>
-      <c r="B30" s="183"/>
-      <c r="C30" s="183"/>
-      <c r="D30" s="183"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="183"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="183"/>
-      <c r="K30" s="183"/>
-      <c r="L30" s="183"/>
-      <c r="M30" s="183"/>
-      <c r="N30" s="183"/>
-      <c r="O30" s="183"/>
-      <c r="P30" s="183"/>
-      <c r="Q30" s="220"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="183"/>
-      <c r="B31" s="183"/>
-      <c r="C31" s="183"/>
-      <c r="D31" s="183"/>
-      <c r="E31" s="183"/>
-      <c r="F31" s="183"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
-      <c r="I31" s="183"/>
-      <c r="J31" s="183"/>
-      <c r="K31" s="183"/>
-      <c r="L31" s="183"/>
-      <c r="M31" s="183"/>
-      <c r="N31" s="183"/>
-      <c r="O31" s="183"/>
-      <c r="P31" s="183"/>
-      <c r="Q31" s="220"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="183"/>
-      <c r="B32" s="183"/>
-      <c r="C32" s="183"/>
-      <c r="D32" s="183"/>
-      <c r="E32" s="183"/>
-      <c r="F32" s="183"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="183"/>
-      <c r="J32" s="183"/>
-      <c r="K32" s="183"/>
-      <c r="L32" s="183"/>
-      <c r="M32" s="183"/>
-      <c r="N32" s="183"/>
-      <c r="O32" s="183"/>
-      <c r="P32" s="183"/>
-      <c r="Q32" s="221"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="183"/>
-      <c r="B33" s="183"/>
-      <c r="C33" s="183"/>
-      <c r="D33" s="183"/>
-      <c r="E33" s="183"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="183"/>
-      <c r="H33" s="183"/>
-      <c r="I33" s="183"/>
-      <c r="J33" s="183"/>
-      <c r="K33" s="183"/>
-      <c r="L33" s="183"/>
-      <c r="M33" s="183"/>
-      <c r="N33" s="183"/>
-      <c r="O33" s="183"/>
-      <c r="P33" s="183"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="183"/>
-      <c r="B34" s="183"/>
-      <c r="C34" s="183"/>
-      <c r="D34" s="183"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="183"/>
-      <c r="H34" s="183"/>
-      <c r="I34" s="183"/>
-      <c r="J34" s="183"/>
-      <c r="K34" s="183"/>
-      <c r="L34" s="183"/>
-      <c r="M34" s="183"/>
-      <c r="N34" s="183"/>
-      <c r="O34" s="183"/>
-      <c r="P34" s="183"/>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="182"/>
+      <c r="B21" s="182"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="182"/>
+      <c r="K21" s="182"/>
+      <c r="L21" s="182"/>
+      <c r="M21" s="182"/>
+      <c r="N21" s="182"/>
+      <c r="O21" s="182"/>
+      <c r="P21" s="182"/>
+      <c r="Q21" s="219"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="182"/>
+      <c r="B22" s="182"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="182"/>
+      <c r="H22" s="182"/>
+      <c r="I22" s="182"/>
+      <c r="J22" s="182"/>
+      <c r="K22" s="182"/>
+      <c r="L22" s="182"/>
+      <c r="M22" s="182"/>
+      <c r="N22" s="182"/>
+      <c r="O22" s="182"/>
+      <c r="P22" s="182"/>
+      <c r="Q22" s="219"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="182"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="182"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="182"/>
+      <c r="G23" s="182"/>
+      <c r="H23" s="182"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="182"/>
+      <c r="K23" s="182"/>
+      <c r="L23" s="182"/>
+      <c r="M23" s="182"/>
+      <c r="N23" s="182"/>
+      <c r="O23" s="182"/>
+      <c r="P23" s="182"/>
+      <c r="Q23" s="219"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="182"/>
+      <c r="B24" s="182"/>
+      <c r="C24" s="182"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="182"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="182"/>
+      <c r="I24" s="182"/>
+      <c r="J24" s="182"/>
+      <c r="K24" s="182"/>
+      <c r="L24" s="182"/>
+      <c r="M24" s="182"/>
+      <c r="N24" s="182"/>
+      <c r="O24" s="182"/>
+      <c r="P24" s="182"/>
+      <c r="Q24" s="219"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="182"/>
+      <c r="B25" s="182"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="182"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="182"/>
+      <c r="K25" s="182"/>
+      <c r="L25" s="182"/>
+      <c r="M25" s="182"/>
+      <c r="N25" s="182"/>
+      <c r="O25" s="182"/>
+      <c r="P25" s="182"/>
+      <c r="Q25" s="219"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="182"/>
+      <c r="B26" s="182"/>
+      <c r="C26" s="182"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="182"/>
+      <c r="F26" s="182"/>
+      <c r="G26" s="182"/>
+      <c r="H26" s="182"/>
+      <c r="I26" s="182"/>
+      <c r="J26" s="182"/>
+      <c r="K26" s="182"/>
+      <c r="L26" s="182"/>
+      <c r="M26" s="182"/>
+      <c r="N26" s="182"/>
+      <c r="O26" s="182"/>
+      <c r="P26" s="182"/>
+      <c r="Q26" s="219"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="182"/>
+      <c r="B27" s="182"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="182"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="182"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="182"/>
+      <c r="I27" s="182"/>
+      <c r="J27" s="182"/>
+      <c r="K27" s="182"/>
+      <c r="L27" s="182"/>
+      <c r="M27" s="182"/>
+      <c r="N27" s="182"/>
+      <c r="O27" s="182"/>
+      <c r="P27" s="182"/>
+      <c r="Q27" s="219"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="182"/>
+      <c r="B28" s="182"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="182"/>
+      <c r="L28" s="182"/>
+      <c r="M28" s="182"/>
+      <c r="N28" s="182"/>
+      <c r="O28" s="182"/>
+      <c r="P28" s="182"/>
+      <c r="Q28" s="219"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="182"/>
+      <c r="B29" s="182"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="182"/>
+      <c r="K29" s="182"/>
+      <c r="L29" s="182"/>
+      <c r="M29" s="182"/>
+      <c r="N29" s="182"/>
+      <c r="O29" s="182"/>
+      <c r="P29" s="182"/>
+      <c r="Q29" s="219"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="182"/>
+      <c r="B30" s="182"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="182"/>
+      <c r="G30" s="182"/>
+      <c r="H30" s="182"/>
+      <c r="I30" s="182"/>
+      <c r="J30" s="182"/>
+      <c r="K30" s="182"/>
+      <c r="L30" s="182"/>
+      <c r="M30" s="182"/>
+      <c r="N30" s="182"/>
+      <c r="O30" s="182"/>
+      <c r="P30" s="182"/>
+      <c r="Q30" s="219"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="182"/>
+      <c r="B31" s="182"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="182"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="182"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="182"/>
+      <c r="I31" s="182"/>
+      <c r="J31" s="182"/>
+      <c r="K31" s="182"/>
+      <c r="L31" s="182"/>
+      <c r="M31" s="182"/>
+      <c r="N31" s="182"/>
+      <c r="O31" s="182"/>
+      <c r="P31" s="182"/>
+      <c r="Q31" s="219"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="182"/>
+      <c r="B32" s="182"/>
+      <c r="C32" s="182"/>
+      <c r="D32" s="182"/>
+      <c r="E32" s="182"/>
+      <c r="F32" s="182"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="182"/>
+      <c r="I32" s="182"/>
+      <c r="J32" s="182"/>
+      <c r="K32" s="182"/>
+      <c r="L32" s="182"/>
+      <c r="M32" s="182"/>
+      <c r="N32" s="182"/>
+      <c r="O32" s="182"/>
+      <c r="P32" s="182"/>
+      <c r="Q32" s="220"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="182"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="182"/>
+      <c r="G33" s="182"/>
+      <c r="H33" s="182"/>
+      <c r="I33" s="182"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="182"/>
+      <c r="L33" s="182"/>
+      <c r="M33" s="182"/>
+      <c r="N33" s="182"/>
+      <c r="O33" s="182"/>
+      <c r="P33" s="182"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="182"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="182"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="182"/>
+      <c r="G34" s="182"/>
+      <c r="H34" s="182"/>
+      <c r="I34" s="182"/>
+      <c r="J34" s="182"/>
+      <c r="K34" s="182"/>
+      <c r="L34" s="182"/>
+      <c r="M34" s="182"/>
+      <c r="N34" s="182"/>
+      <c r="O34" s="182"/>
+      <c r="P34" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6520,10 +6520,10 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="20" width="27.796875" style="20" customWidth="1"/>
-    <col min="21" max="16384" width="8.8984375" style="20"/>
+    <col min="1" max="20" width="27.77734375" style="20" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -8337,14 +8337,14 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.3984375" style="20" customWidth="1"/>
-    <col min="2" max="4" width="27.796875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="15.8984375" style="68" customWidth="1"/>
-    <col min="6" max="6" width="27.796875" style="68" customWidth="1"/>
-    <col min="7" max="9" width="12.09765625" style="68" customWidth="1"/>
-    <col min="10" max="16384" width="8.8984375" style="20"/>
+    <col min="1" max="1" width="21.44140625" style="20" customWidth="1"/>
+    <col min="2" max="4" width="27.77734375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="67" customWidth="1"/>
+    <col min="6" max="6" width="27.77734375" style="67" customWidth="1"/>
+    <col min="7" max="9" width="12.109375" style="67" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -8360,19 +8360,19 @@
       <c r="D1" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="I1" s="79" t="s">
         <v>110</v>
       </c>
     </row>
@@ -8389,19 +8389,19 @@
       <c r="D2" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="66">
+      <c r="F2" s="65">
         <v>44253.833344907405</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="66">
         <v>2</v>
       </c>
-      <c r="H2" s="67">
+      <c r="H2" s="66">
         <v>126</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="66">
         <v>1</v>
       </c>
     </row>
@@ -8418,19 +8418,19 @@
       <c r="D3" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="66">
+      <c r="F3" s="65">
         <v>44253.729178240741</v>
       </c>
-      <c r="G3" s="67">
+      <c r="G3" s="66">
         <v>1</v>
       </c>
-      <c r="H3" s="67">
+      <c r="H3" s="66">
         <v>89</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="66">
         <v>6</v>
       </c>
     </row>
@@ -8447,19 +8447,19 @@
       <c r="D4" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="66">
+      <c r="F4" s="65">
         <v>44253.208344907405</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="66">
         <v>7</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="66">
         <v>34</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="64" t="s">
         <v>78</v>
       </c>
     </row>
@@ -8476,19 +8476,19 @@
       <c r="D5" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="65">
         <v>44252.854178240741</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="66">
         <v>12</v>
       </c>
-      <c r="H5" s="67">
+      <c r="H5" s="66">
         <v>262</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="66">
         <v>18</v>
       </c>
     </row>
@@ -8505,19 +8505,19 @@
       <c r="D6" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="66">
+      <c r="F6" s="65">
         <v>44251.208356481482</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="66">
         <v>20</v>
       </c>
-      <c r="H6" s="67">
+      <c r="H6" s="66">
         <v>45</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="66">
         <v>25</v>
       </c>
     </row>
@@ -8534,19 +8534,19 @@
       <c r="D7" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="66">
+      <c r="F7" s="65">
         <v>44249.208356481482</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="66">
         <v>27</v>
       </c>
-      <c r="H7" s="67">
+      <c r="H7" s="66">
         <v>161</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="66">
         <v>12</v>
       </c>
     </row>
@@ -8563,19 +8563,19 @@
       <c r="D8" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="65">
         <v>44249.19226851852</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="66">
         <v>44</v>
       </c>
-      <c r="H8" s="67">
+      <c r="H8" s="66">
         <v>345</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="66">
         <v>9</v>
       </c>
     </row>
@@ -8592,19 +8592,19 @@
       <c r="D9" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="65">
         <v>44248.854178240741</v>
       </c>
-      <c r="G9" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="67">
+      <c r="G9" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="66">
         <v>162</v>
       </c>
-      <c r="I9" s="67">
+      <c r="I9" s="66">
         <v>4</v>
       </c>
     </row>
@@ -8621,19 +8621,19 @@
       <c r="D10" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="65">
         <v>44245.797523148147</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="66">
         <v>1</v>
       </c>
-      <c r="H10" s="67">
+      <c r="H10" s="66">
         <v>47</v>
       </c>
-      <c r="I10" s="65" t="s">
+      <c r="I10" s="64" t="s">
         <v>78</v>
       </c>
     </row>
@@ -8650,19 +8650,19 @@
       <c r="D11" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="F11" s="66">
+      <c r="F11" s="65">
         <v>44244.915567129632</v>
       </c>
-      <c r="G11" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="67">
+      <c r="G11" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="66">
         <v>566</v>
       </c>
-      <c r="I11" s="67">
+      <c r="I11" s="66">
         <v>65</v>
       </c>
     </row>
@@ -8679,19 +8679,19 @@
       <c r="D12" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="F12" s="66">
+      <c r="F12" s="65">
         <v>44244.910162037035</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="66">
         <v>1</v>
       </c>
-      <c r="H12" s="67">
+      <c r="H12" s="66">
         <v>102</v>
       </c>
-      <c r="I12" s="65" t="s">
+      <c r="I12" s="64" t="s">
         <v>78</v>
       </c>
     </row>
@@ -8708,19 +8708,19 @@
       <c r="D13" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="66">
+      <c r="F13" s="65">
         <v>44244.000023148146</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="66">
         <v>29</v>
       </c>
-      <c r="H13" s="67">
+      <c r="H13" s="66">
         <v>904</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="66">
         <v>26</v>
       </c>
     </row>
@@ -8737,19 +8737,19 @@
       <c r="D14" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="66">
+      <c r="F14" s="65">
         <v>44241.759004629632</v>
       </c>
-      <c r="G14" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="67">
+      <c r="G14" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="66">
         <v>80</v>
       </c>
-      <c r="I14" s="65" t="s">
+      <c r="I14" s="64" t="s">
         <v>78</v>
       </c>
     </row>
@@ -8766,19 +8766,19 @@
       <c r="D15" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="65">
         <v>44240.703402777777</v>
       </c>
-      <c r="G15" s="67">
+      <c r="G15" s="66">
         <v>18</v>
       </c>
-      <c r="H15" s="67">
+      <c r="H15" s="66">
         <v>166</v>
       </c>
-      <c r="I15" s="67">
+      <c r="I15" s="66">
         <v>5</v>
       </c>
     </row>
@@ -8795,19 +8795,19 @@
       <c r="D16" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="65" t="s">
+      <c r="E16" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="66">
+      <c r="F16" s="65">
         <v>44239.360497685186</v>
       </c>
-      <c r="G16" s="67">
+      <c r="G16" s="66">
         <v>1</v>
       </c>
-      <c r="H16" s="67">
+      <c r="H16" s="66">
         <v>99</v>
       </c>
-      <c r="I16" s="65" t="s">
+      <c r="I16" s="64" t="s">
         <v>78</v>
       </c>
     </row>
@@ -8824,19 +8824,19 @@
       <c r="D17" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="65" t="s">
+      <c r="E17" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="66">
+      <c r="F17" s="65">
         <v>44238.708634259259</v>
       </c>
-      <c r="G17" s="67">
+      <c r="G17" s="66">
         <v>3</v>
       </c>
-      <c r="H17" s="67">
+      <c r="H17" s="66">
         <v>133</v>
       </c>
-      <c r="I17" s="67">
+      <c r="I17" s="66">
         <v>3</v>
       </c>
     </row>
@@ -8853,19 +8853,19 @@
       <c r="D18" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="E18" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="66">
+      <c r="F18" s="65">
         <v>44238.362557870372</v>
       </c>
-      <c r="G18" s="67">
+      <c r="G18" s="66">
         <v>8</v>
       </c>
-      <c r="H18" s="67">
+      <c r="H18" s="66">
         <v>485</v>
       </c>
-      <c r="I18" s="67">
+      <c r="I18" s="66">
         <v>11</v>
       </c>
     </row>
@@ -8882,19 +8882,19 @@
       <c r="D19" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="F19" s="66">
+      <c r="F19" s="65">
         <v>44238.322384259256</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="66">
         <v>7</v>
       </c>
-      <c r="H19" s="67">
+      <c r="H19" s="66">
         <v>265</v>
       </c>
-      <c r="I19" s="67">
+      <c r="I19" s="66">
         <v>1</v>
       </c>
     </row>
@@ -8911,19 +8911,19 @@
       <c r="D20" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="E20" s="65" t="s">
+      <c r="E20" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="66">
+      <c r="F20" s="65">
         <v>44237.208344907405</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="66">
         <v>33</v>
       </c>
-      <c r="H20" s="67">
+      <c r="H20" s="66">
         <v>328</v>
       </c>
-      <c r="I20" s="67">
+      <c r="I20" s="66">
         <v>37</v>
       </c>
     </row>
@@ -8940,19 +8940,19 @@
       <c r="D21" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="E21" s="65" t="s">
+      <c r="E21" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="66">
+      <c r="F21" s="65">
         <v>44236.133090277777</v>
       </c>
-      <c r="G21" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" s="67">
+      <c r="G21" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="66">
         <v>352</v>
       </c>
-      <c r="I21" s="67">
+      <c r="I21" s="66">
         <v>3</v>
       </c>
     </row>
@@ -8969,19 +8969,19 @@
       <c r="D22" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="E22" s="65" t="s">
+      <c r="E22" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="F22" s="66">
+      <c r="F22" s="65">
         <v>44236.127905092595</v>
       </c>
-      <c r="G22" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="67">
+      <c r="G22" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="66">
         <v>2</v>
       </c>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="64" t="s">
         <v>78</v>
       </c>
     </row>
@@ -8998,19 +8998,19 @@
       <c r="D23" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="66">
+      <c r="F23" s="65">
         <v>44236.046238425923</v>
       </c>
-      <c r="G23" s="67">
+      <c r="G23" s="66">
         <v>3</v>
       </c>
-      <c r="H23" s="67">
+      <c r="H23" s="66">
         <v>51</v>
       </c>
-      <c r="I23" s="67">
+      <c r="I23" s="66">
         <v>1</v>
       </c>
     </row>
@@ -9027,19 +9027,19 @@
       <c r="D24" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="E24" s="65" t="s">
+      <c r="E24" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="66">
+      <c r="F24" s="65">
         <v>44235.041759259257</v>
       </c>
-      <c r="G24" s="67">
+      <c r="G24" s="66">
         <v>19</v>
       </c>
-      <c r="H24" s="67">
+      <c r="H24" s="66">
         <v>264</v>
       </c>
-      <c r="I24" s="67">
+      <c r="I24" s="66">
         <v>26</v>
       </c>
     </row>
@@ -9056,19 +9056,19 @@
       <c r="D25" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="F25" s="66">
+      <c r="F25" s="65">
         <v>44233.347245370373</v>
       </c>
-      <c r="G25" s="67">
+      <c r="G25" s="66">
         <v>1</v>
       </c>
-      <c r="H25" s="67">
+      <c r="H25" s="66">
         <v>144</v>
       </c>
-      <c r="I25" s="67">
+      <c r="I25" s="66">
         <v>5</v>
       </c>
     </row>
@@ -9085,19 +9085,19 @@
       <c r="D26" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="E26" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="F26" s="66">
+      <c r="F26" s="65">
         <v>44232.208356481482</v>
       </c>
-      <c r="G26" s="67">
+      <c r="G26" s="66">
         <v>5</v>
       </c>
-      <c r="H26" s="67">
+      <c r="H26" s="66">
         <v>97</v>
       </c>
-      <c r="I26" s="67">
+      <c r="I26" s="66">
         <v>2</v>
       </c>
     </row>
@@ -9114,19 +9114,19 @@
       <c r="D27" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="66">
+      <c r="F27" s="65">
         <v>44230.229444444441</v>
       </c>
-      <c r="G27" s="67">
+      <c r="G27" s="66">
         <v>7</v>
       </c>
-      <c r="H27" s="67">
+      <c r="H27" s="66">
         <v>75</v>
       </c>
-      <c r="I27" s="65" t="s">
+      <c r="I27" s="64" t="s">
         <v>78</v>
       </c>
     </row>
@@ -9143,19 +9143,19 @@
       <c r="D28" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="E28" s="65" t="s">
+      <c r="E28" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="66">
+      <c r="F28" s="65">
         <v>44230.066736111112</v>
       </c>
-      <c r="G28" s="67">
+      <c r="G28" s="66">
         <v>2</v>
       </c>
-      <c r="H28" s="67">
+      <c r="H28" s="66">
         <v>106</v>
       </c>
-      <c r="I28" s="67">
+      <c r="I28" s="66">
         <v>1</v>
       </c>
     </row>
@@ -9172,19 +9172,19 @@
       <c r="D29" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="E29" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="66">
+      <c r="F29" s="65">
         <v>44229.03334490741</v>
       </c>
-      <c r="G29" s="67">
+      <c r="G29" s="66">
         <v>2</v>
       </c>
-      <c r="H29" s="67">
+      <c r="H29" s="66">
         <v>77</v>
       </c>
-      <c r="I29" s="67">
+      <c r="I29" s="66">
         <v>1</v>
       </c>
     </row>
@@ -9201,940 +9201,940 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.796875" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="27.796875" style="71" customWidth="1"/>
-    <col min="5" max="5" width="16.59765625" style="76" customWidth="1"/>
-    <col min="6" max="6" width="27.796875" style="71" customWidth="1"/>
-    <col min="7" max="10" width="18.09765625" style="76" customWidth="1"/>
-    <col min="11" max="16384" width="9.796875" style="71"/>
+    <col min="1" max="4" width="27.77734375" style="70" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" style="75" customWidth="1"/>
+    <col min="6" max="6" width="27.77734375" style="70" customWidth="1"/>
+    <col min="7" max="10" width="18.109375" style="75" customWidth="1"/>
+    <col min="11" max="16384" width="9.77734375" style="70"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="80" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="73">
+      <c r="F2" s="72">
         <v>44253.833344907405</v>
       </c>
-      <c r="G2" s="77">
+      <c r="G2" s="76">
         <v>70</v>
       </c>
-      <c r="H2" s="77">
+      <c r="H2" s="76">
         <v>38</v>
       </c>
-      <c r="I2" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="75" t="s">
+      <c r="I2" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="74" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="72" t="s">
+      <c r="A3" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="73">
+      <c r="F3" s="72">
         <v>44253.729178240741</v>
       </c>
-      <c r="G3" s="77">
+      <c r="G3" s="76">
         <v>108</v>
       </c>
-      <c r="H3" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="77">
+      <c r="H3" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="76">
         <v>20</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="74" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="73">
+      <c r="F4" s="72">
         <v>44253.208344907405</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="76">
         <v>19</v>
       </c>
-      <c r="H4" s="77">
+      <c r="H4" s="76">
         <v>8</v>
       </c>
-      <c r="I4" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" s="77">
+      <c r="I4" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="76">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="72" t="s">
+      <c r="A5" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="73">
+      <c r="F5" s="72">
         <v>44252.854178240741</v>
       </c>
-      <c r="G5" s="77">
+      <c r="G5" s="76">
         <v>614</v>
       </c>
-      <c r="H5" s="77">
+      <c r="H5" s="76">
         <v>137</v>
       </c>
-      <c r="I5" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" s="77">
+      <c r="I5" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="76">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="72" t="s">
+      <c r="A6" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="73">
+      <c r="F6" s="72">
         <v>44251.208356481482</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="76">
         <v>85</v>
       </c>
-      <c r="H6" s="77">
+      <c r="H6" s="76">
         <v>18</v>
       </c>
-      <c r="I6" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" s="77">
+      <c r="I6" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="76">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="72" t="s">
+      <c r="A7" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="73">
+      <c r="F7" s="72">
         <v>44249.208356481482</v>
       </c>
-      <c r="G7" s="77">
+      <c r="G7" s="76">
         <v>190</v>
       </c>
-      <c r="H7" s="77">
+      <c r="H7" s="76">
         <v>49</v>
       </c>
-      <c r="I7" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="77">
+      <c r="I7" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="76">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="72" t="s">
+      <c r="A8" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="E8" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="73">
+      <c r="F8" s="72">
         <v>44249.19226851852</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="76">
         <v>967</v>
       </c>
-      <c r="H8" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="77">
+      <c r="H8" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="76">
         <v>114</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="76">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="72" t="s">
+      <c r="A9" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="73">
+      <c r="F9" s="72">
         <v>44248.854178240741</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="76">
         <v>57</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="76">
         <v>6</v>
       </c>
-      <c r="I9" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="77">
+      <c r="I9" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="76">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="72" t="s">
+      <c r="A10" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="73">
+      <c r="F10" s="72">
         <v>44245.797523148147</v>
       </c>
-      <c r="G10" s="77">
+      <c r="G10" s="76">
         <v>50</v>
       </c>
-      <c r="H10" s="77">
+      <c r="H10" s="76">
         <v>12</v>
       </c>
-      <c r="I10" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="77">
+      <c r="I10" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="76">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="72" t="s">
+      <c r="A11" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="F11" s="73">
+      <c r="F11" s="72">
         <v>44244.915567129632</v>
       </c>
-      <c r="G11" s="77">
+      <c r="G11" s="76">
         <v>1039</v>
       </c>
-      <c r="H11" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="75" t="s">
+      <c r="H11" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="74" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="72" t="s">
+      <c r="A12" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="F12" s="73">
+      <c r="F12" s="72">
         <v>44244.910162037035</v>
       </c>
-      <c r="G12" s="77">
+      <c r="G12" s="76">
         <v>34</v>
       </c>
-      <c r="H12" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="77">
+      <c r="H12" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="76">
         <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="72" t="s">
+      <c r="A13" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="E13" s="75" t="s">
+      <c r="E13" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="73">
+      <c r="F13" s="72">
         <v>44244.000023148146</v>
       </c>
-      <c r="G13" s="77">
+      <c r="G13" s="76">
         <v>1230</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="76">
         <v>380</v>
       </c>
-      <c r="I13" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" s="75" t="s">
+      <c r="I13" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="74" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="72" t="s">
+      <c r="A14" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="E14" s="75" t="s">
+      <c r="E14" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="73">
+      <c r="F14" s="72">
         <v>44241.759004629632</v>
       </c>
-      <c r="G14" s="77">
+      <c r="G14" s="76">
         <v>18</v>
       </c>
-      <c r="H14" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="77">
+      <c r="H14" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="76">
         <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="72" t="s">
+      <c r="A15" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="E15" s="75" t="s">
+      <c r="E15" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="73">
+      <c r="F15" s="72">
         <v>44240.703402777777</v>
       </c>
-      <c r="G15" s="77">
+      <c r="G15" s="76">
         <v>236</v>
       </c>
-      <c r="H15" s="77">
+      <c r="H15" s="76">
         <v>129</v>
       </c>
-      <c r="I15" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="75" t="s">
+      <c r="I15" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="74" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="72" t="s">
+      <c r="A16" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="75" t="s">
+      <c r="E16" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="73">
+      <c r="F16" s="72">
         <v>44239.360497685186</v>
       </c>
-      <c r="G16" s="77">
+      <c r="G16" s="76">
         <v>18</v>
       </c>
-      <c r="H16" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="77">
+      <c r="H16" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="76">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="72" t="s">
+      <c r="A17" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="75" t="s">
+      <c r="E17" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="73">
+      <c r="F17" s="72">
         <v>44238.708634259259</v>
       </c>
-      <c r="G17" s="77">
+      <c r="G17" s="76">
         <v>26</v>
       </c>
-      <c r="H17" s="77">
+      <c r="H17" s="76">
         <v>3</v>
       </c>
-      <c r="I17" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J17" s="75" t="s">
+      <c r="I17" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="74" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="72" t="s">
+      <c r="A18" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="73">
+      <c r="F18" s="72">
         <v>44238.362557870372</v>
       </c>
-      <c r="G18" s="77">
+      <c r="G18" s="76">
         <v>337</v>
       </c>
-      <c r="H18" s="77">
+      <c r="H18" s="76">
         <v>176</v>
       </c>
-      <c r="I18" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="75" t="s">
+      <c r="I18" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="74" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="72" t="s">
+      <c r="A19" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="E19" s="75" t="s">
+      <c r="E19" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="F19" s="73">
+      <c r="F19" s="72">
         <v>44238.322384259256</v>
       </c>
-      <c r="G19" s="77">
+      <c r="G19" s="76">
         <v>71</v>
       </c>
-      <c r="H19" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" s="77">
+      <c r="H19" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="76">
         <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="72" t="s">
+      <c r="A20" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="E20" s="75" t="s">
+      <c r="E20" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="73">
+      <c r="F20" s="72">
         <v>44237.208344907405</v>
       </c>
-      <c r="G20" s="77">
+      <c r="G20" s="76">
         <v>442</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="76">
         <v>67</v>
       </c>
-      <c r="I20" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J20" s="75" t="s">
+      <c r="I20" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" s="74" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="72" t="s">
+      <c r="A21" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="E21" s="75" t="s">
+      <c r="E21" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="73">
+      <c r="F21" s="72">
         <v>44236.133090277777</v>
       </c>
-      <c r="G21" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="I21" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J21" s="75" t="s">
+      <c r="G21" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="74" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="72" t="s">
+      <c r="A22" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="E22" s="75" t="s">
+      <c r="E22" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="F22" s="73">
+      <c r="F22" s="72">
         <v>44236.127905092595</v>
       </c>
-      <c r="G22" s="77">
+      <c r="G22" s="76">
         <v>1</v>
       </c>
-      <c r="H22" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="77">
+      <c r="H22" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="76">
         <v>4</v>
       </c>
-      <c r="J22" s="75" t="s">
+      <c r="J22" s="74" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="72" t="s">
+      <c r="A23" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="72" t="s">
+      <c r="D23" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="75" t="s">
+      <c r="E23" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="73">
+      <c r="F23" s="72">
         <v>44236.046238425923</v>
       </c>
-      <c r="G23" s="77">
+      <c r="G23" s="76">
         <v>40</v>
       </c>
-      <c r="H23" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="77">
+      <c r="H23" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="76">
         <v>9</v>
       </c>
-      <c r="J23" s="75" t="s">
+      <c r="J23" s="74" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="72" t="s">
+      <c r="A24" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="D24" s="72" t="s">
+      <c r="D24" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="E24" s="75" t="s">
+      <c r="E24" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="73">
+      <c r="F24" s="72">
         <v>44235.041759259257</v>
       </c>
-      <c r="G24" s="77">
+      <c r="G24" s="76">
         <v>840</v>
       </c>
-      <c r="H24" s="77">
+      <c r="H24" s="76">
         <v>16</v>
       </c>
-      <c r="I24" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J24" s="75" t="s">
+      <c r="I24" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" s="74" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="72" t="s">
+      <c r="A25" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="D25" s="72" t="s">
+      <c r="D25" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="E25" s="75" t="s">
+      <c r="E25" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="F25" s="73">
+      <c r="F25" s="72">
         <v>44233.347245370373</v>
       </c>
-      <c r="G25" s="77">
+      <c r="G25" s="76">
         <v>116</v>
       </c>
-      <c r="H25" s="77">
+      <c r="H25" s="76">
         <v>11</v>
       </c>
-      <c r="I25" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J25" s="75" t="s">
+      <c r="I25" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="74" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="72" t="s">
+      <c r="A26" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="D26" s="72" t="s">
+      <c r="D26" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="E26" s="75" t="s">
+      <c r="E26" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="F26" s="73">
+      <c r="F26" s="72">
         <v>44232.208356481482</v>
       </c>
-      <c r="G26" s="77">
+      <c r="G26" s="76">
         <v>17</v>
       </c>
-      <c r="H26" s="77">
+      <c r="H26" s="76">
         <v>5</v>
       </c>
-      <c r="I26" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J26" s="75" t="s">
+      <c r="I26" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" s="74" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="72" t="s">
+      <c r="A27" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="D27" s="72" t="s">
+      <c r="D27" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="E27" s="75" t="s">
+      <c r="E27" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="73">
+      <c r="F27" s="72">
         <v>44230.229444444441</v>
       </c>
-      <c r="G27" s="77">
+      <c r="G27" s="76">
         <v>22</v>
       </c>
-      <c r="H27" s="77">
+      <c r="H27" s="76">
         <v>53</v>
       </c>
-      <c r="I27" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J27" s="75" t="s">
+      <c r="I27" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="74" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="72" t="s">
+      <c r="A28" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="D28" s="72" t="s">
+      <c r="D28" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="E28" s="75" t="s">
+      <c r="E28" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="73">
+      <c r="F28" s="72">
         <v>44230.066736111112</v>
       </c>
-      <c r="G28" s="77">
+      <c r="G28" s="76">
         <v>150</v>
       </c>
-      <c r="H28" s="77">
+      <c r="H28" s="76">
         <v>39</v>
       </c>
-      <c r="I28" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J28" s="75" t="s">
+      <c r="I28" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" s="74" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="72" t="s">
+      <c r="A29" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="D29" s="72" t="s">
+      <c r="D29" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="E29" s="75" t="s">
+      <c r="E29" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="73">
+      <c r="F29" s="72">
         <v>44229.03334490741</v>
       </c>
-      <c r="G29" s="77">
+      <c r="G29" s="76">
         <v>157</v>
       </c>
-      <c r="H29" s="77">
+      <c r="H29" s="76">
         <v>31</v>
       </c>
-      <c r="I29" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J29" s="75" t="s">
+      <c r="I29" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" s="74" t="s">
         <v>78</v>
       </c>
     </row>
